--- a/Lab2_Memoria/datos_medicion_ram_swap.xlsx
+++ b/Lab2_Memoria/datos_medicion_ram_swap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA28F48-6B2B-4201-850B-0AACED87FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBADA86E-C1D0-414E-BC6E-2FF15084BF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{05936A5C-0C81-4BE6-8F5C-3019B726C1BB}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B865EEBB-975C-4494-BFF4-4A67920F8F38}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H49" sqref="A1:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
